--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-oncofair-careplan.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-oncofair-careplan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T08:32:47+00:00</t>
+    <t>2025-04-29T08:36:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
